--- a/Js/position.xlsx
+++ b/Js/position.xlsx
@@ -4,17 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H:$H</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>名称</t>
   </si>
@@ -31,1040 +47,1046 @@
     <t>修正值y</t>
   </si>
   <si>
+    <t>阿坝</t>
+  </si>
+  <si>
+    <t>阿克苏</t>
+  </si>
+  <si>
+    <t>阿拉善</t>
+  </si>
+  <si>
+    <t>阿勒泰</t>
+  </si>
+  <si>
+    <t>阿里</t>
+  </si>
+  <si>
+    <t>安康</t>
+  </si>
+  <si>
+    <t>安庆</t>
+  </si>
+  <si>
+    <t>安顺</t>
+  </si>
+  <si>
+    <t>安阳</t>
+  </si>
+  <si>
+    <t>鞍山</t>
+  </si>
+  <si>
+    <t>巴彦卓尔</t>
+  </si>
+  <si>
+    <t>巴音郭楞</t>
+  </si>
+  <si>
+    <t>巴中</t>
+  </si>
+  <si>
+    <t>白城</t>
+  </si>
+  <si>
+    <t>白山</t>
+  </si>
+  <si>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>百色</t>
+  </si>
+  <si>
+    <t>蚌埠</t>
+  </si>
+  <si>
+    <t>包头</t>
+  </si>
+  <si>
+    <t>宝鸡</t>
+  </si>
+  <si>
+    <t>宝山</t>
+  </si>
+  <si>
+    <t>保定</t>
+  </si>
+  <si>
+    <t>北海</t>
+  </si>
+  <si>
     <t>北京</t>
   </si>
   <si>
+    <t>本溪</t>
+  </si>
+  <si>
+    <t>毕节</t>
+  </si>
+  <si>
+    <t>滨州</t>
+  </si>
+  <si>
+    <t>博尔塔拉</t>
+  </si>
+  <si>
+    <t>沧州</t>
+  </si>
+  <si>
+    <t>昌都</t>
+  </si>
+  <si>
+    <t>昌吉</t>
+  </si>
+  <si>
+    <t>常德</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>朝阳</t>
+  </si>
+  <si>
+    <t>潮州</t>
+  </si>
+  <si>
+    <t>郴州</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>承德</t>
+  </si>
+  <si>
+    <t>池州</t>
+  </si>
+  <si>
+    <t>赤峰</t>
+  </si>
+  <si>
+    <t>崇左</t>
+  </si>
+  <si>
+    <t>滁州</t>
+  </si>
+  <si>
+    <t>楚雄</t>
+  </si>
+  <si>
+    <t>达州</t>
+  </si>
+  <si>
+    <t>大理</t>
+  </si>
+  <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>大庆</t>
+  </si>
+  <si>
+    <t>大同</t>
+  </si>
+  <si>
+    <t>大兴安岭</t>
+  </si>
+  <si>
+    <t>丹东</t>
+  </si>
+  <si>
+    <t>儋州</t>
+  </si>
+  <si>
+    <t>德宏</t>
+  </si>
+  <si>
+    <t>德阳</t>
+  </si>
+  <si>
+    <t>德州</t>
+  </si>
+  <si>
+    <t>迪庆</t>
+  </si>
+  <si>
+    <t>定西</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>东营</t>
+  </si>
+  <si>
+    <t>鄂尔多斯</t>
+  </si>
+  <si>
+    <t>鄂州</t>
+  </si>
+  <si>
+    <t>恩施</t>
+  </si>
+  <si>
+    <t>防城港</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>抚顺</t>
+  </si>
+  <si>
+    <t>抚州</t>
+  </si>
+  <si>
+    <t>阜新</t>
+  </si>
+  <si>
+    <t>阜阳</t>
+  </si>
+  <si>
+    <t>甘南</t>
+  </si>
+  <si>
+    <t>甘孜</t>
+  </si>
+  <si>
+    <t>赣州</t>
+  </si>
+  <si>
+    <t>固原</t>
+  </si>
+  <si>
+    <t>广安</t>
+  </si>
+  <si>
+    <t>广元</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>贵港</t>
+  </si>
+  <si>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>桂林</t>
+  </si>
+  <si>
+    <t>果洛</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>哈密</t>
+  </si>
+  <si>
+    <t>海北</t>
+  </si>
+  <si>
+    <t>海东</t>
+  </si>
+  <si>
+    <t>海口</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>海西</t>
+  </si>
+  <si>
+    <t>邯郸</t>
+  </si>
+  <si>
+    <t>汉中</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>毫州</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>和田地区</t>
+  </si>
+  <si>
+    <t>河池</t>
+  </si>
+  <si>
+    <t>河源</t>
+  </si>
+  <si>
+    <t>菏泽</t>
+  </si>
+  <si>
+    <t>贺州</t>
+  </si>
+  <si>
+    <t>鹤壁</t>
+  </si>
+  <si>
+    <t>鹤岗</t>
+  </si>
+  <si>
+    <t>黑河</t>
+  </si>
+  <si>
+    <t>衡水</t>
+  </si>
+  <si>
+    <t>衡阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">红河 </t>
+  </si>
+  <si>
+    <t>呼和浩特</t>
+  </si>
+  <si>
+    <t>呼伦贝尔</t>
+  </si>
+  <si>
+    <t>葫芦岛</t>
+  </si>
+  <si>
+    <t>湖州</t>
+  </si>
+  <si>
+    <t>怀化</t>
+  </si>
+  <si>
+    <t>淮安</t>
+  </si>
+  <si>
+    <t>淮北</t>
+  </si>
+  <si>
+    <t>淮南</t>
+  </si>
+  <si>
+    <t>黄冈</t>
+  </si>
+  <si>
+    <t>黄南</t>
+  </si>
+  <si>
+    <t>黄山</t>
+  </si>
+  <si>
+    <t>黄石</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>鸡西</t>
+  </si>
+  <si>
+    <t>吉安</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>济宁</t>
+  </si>
+  <si>
+    <t>济源</t>
+  </si>
+  <si>
+    <t>佳木斯</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
+    <t>嘉峪关</t>
+  </si>
+  <si>
+    <t>江门</t>
+  </si>
+  <si>
+    <t>焦作</t>
+  </si>
+  <si>
+    <t>揭阳</t>
+  </si>
+  <si>
+    <t>金昌</t>
+  </si>
+  <si>
+    <t>金华</t>
+  </si>
+  <si>
+    <t>锦州</t>
+  </si>
+  <si>
+    <t>晋城</t>
+  </si>
+  <si>
+    <t>晋中</t>
+  </si>
+  <si>
+    <t>荆门</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>景德镇</t>
+  </si>
+  <si>
+    <t>九江</t>
+  </si>
+  <si>
+    <t>酒泉</t>
+  </si>
+  <si>
+    <t>喀什</t>
+  </si>
+  <si>
+    <t>开封</t>
+  </si>
+  <si>
+    <t>克拉玛依</t>
+  </si>
+  <si>
+    <t>克孜勒苏</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>拉萨</t>
+  </si>
+  <si>
+    <t>来宾</t>
+  </si>
+  <si>
+    <t>兰州</t>
+  </si>
+  <si>
+    <t>廊坊</t>
+  </si>
+  <si>
+    <t>乐山</t>
+  </si>
+  <si>
+    <t>丽江</t>
+  </si>
+  <si>
+    <t>丽水</t>
+  </si>
+  <si>
+    <t>连云港</t>
+  </si>
+  <si>
+    <t>凉山</t>
+  </si>
+  <si>
+    <t>辽阳</t>
+  </si>
+  <si>
+    <t>辽源</t>
+  </si>
+  <si>
+    <t>聊城</t>
+  </si>
+  <si>
+    <t>林芝</t>
+  </si>
+  <si>
+    <t>临沧</t>
+  </si>
+  <si>
+    <t>临汾</t>
+  </si>
+  <si>
+    <t>临夏</t>
+  </si>
+  <si>
+    <t>临沂</t>
+  </si>
+  <si>
+    <t>柳州</t>
+  </si>
+  <si>
+    <t>六安</t>
+  </si>
+  <si>
+    <t>六盘水</t>
+  </si>
+  <si>
+    <t>龙岩</t>
+  </si>
+  <si>
+    <t>隆昌</t>
+  </si>
+  <si>
+    <t>陇南</t>
+  </si>
+  <si>
+    <t>娄底</t>
+  </si>
+  <si>
+    <t>泸州</t>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>漯河</t>
+  </si>
+  <si>
+    <t>吕梁</t>
+  </si>
+  <si>
+    <t>马鞍山</t>
+  </si>
+  <si>
+    <t>茂名</t>
+  </si>
+  <si>
+    <t>眉山</t>
+  </si>
+  <si>
+    <t>梅州</t>
+  </si>
+  <si>
+    <t>绵阳</t>
+  </si>
+  <si>
+    <t>牡丹江</t>
+  </si>
+  <si>
+    <t>那曲</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>南充</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>南平</t>
+  </si>
+  <si>
+    <t>南通</t>
+  </si>
+  <si>
+    <t>南阳</t>
+  </si>
+  <si>
+    <t>内江</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>宁德</t>
+  </si>
+  <si>
+    <t>怒江</t>
+  </si>
+  <si>
+    <t>攀枝花</t>
+  </si>
+  <si>
+    <t>盘锦</t>
+  </si>
+  <si>
+    <t>平顶山</t>
+  </si>
+  <si>
+    <t>平凉</t>
+  </si>
+  <si>
+    <t>萍乡</t>
+  </si>
+  <si>
+    <t>莆田</t>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>普洱</t>
+  </si>
+  <si>
+    <t>七台河</t>
+  </si>
+  <si>
+    <t>齐齐哈尔</t>
+  </si>
+  <si>
+    <t>潜江</t>
+  </si>
+  <si>
+    <t>黔东南</t>
+  </si>
+  <si>
+    <t>黔南</t>
+  </si>
+  <si>
+    <t>黔西南</t>
+  </si>
+  <si>
+    <t>钦州</t>
+  </si>
+  <si>
+    <t>秦皇岛</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>清远</t>
+  </si>
+  <si>
+    <t>庆阳</t>
+  </si>
+  <si>
+    <t>衢州</t>
+  </si>
+  <si>
+    <t>泉州</t>
+  </si>
+  <si>
+    <t>日喀则</t>
+  </si>
+  <si>
+    <t>日照</t>
+  </si>
+  <si>
+    <t>三门峡</t>
+  </si>
+  <si>
+    <t>三明</t>
+  </si>
+  <si>
+    <t>三沙</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>山南</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>汕尾</t>
+  </si>
+  <si>
+    <t>商洛</t>
+  </si>
+  <si>
+    <t>商丘</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>上饶</t>
+  </si>
+  <si>
+    <t>韶关</t>
+  </si>
+  <si>
+    <t>邵阳</t>
+  </si>
+  <si>
+    <t>绍兴</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>神农架</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>十堰</t>
+  </si>
+  <si>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>石嘴山</t>
+  </si>
+  <si>
+    <t>双鸭山</t>
+  </si>
+  <si>
+    <t>朔州</t>
+  </si>
+  <si>
+    <t>四平</t>
+  </si>
+  <si>
+    <t>松原</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>宿迁</t>
+  </si>
+  <si>
+    <t>宿州</t>
+  </si>
+  <si>
+    <t>绥化</t>
+  </si>
+  <si>
+    <t>随州</t>
+  </si>
+  <si>
+    <t>遂宁</t>
+  </si>
+  <si>
+    <t>塔城</t>
+  </si>
+  <si>
+    <t>台州</t>
+  </si>
+  <si>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>泰安</t>
+  </si>
+  <si>
+    <t>泰州</t>
+  </si>
+  <si>
+    <t>唐山</t>
+  </si>
+  <si>
     <t>天津</t>
   </si>
   <si>
-    <t>上海</t>
+    <t>天门</t>
+  </si>
+  <si>
+    <t>天水</t>
+  </si>
+  <si>
+    <t>铁岭</t>
+  </si>
+  <si>
+    <t>通化</t>
+  </si>
+  <si>
+    <t>通辽</t>
+  </si>
+  <si>
+    <t>铜川</t>
+  </si>
+  <si>
+    <t>铜陵</t>
+  </si>
+  <si>
+    <t>铜仁</t>
+  </si>
+  <si>
+    <t>吐鲁番</t>
+  </si>
+  <si>
+    <t>威海</t>
+  </si>
+  <si>
+    <t>潍坊</t>
+  </si>
+  <si>
+    <t>渭南</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>文山</t>
+  </si>
+  <si>
+    <t>乌海</t>
+  </si>
+  <si>
+    <t>乌兰察布</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>芜湖</t>
+  </si>
+  <si>
+    <t>吴忠</t>
+  </si>
+  <si>
+    <t>梧州</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>武威</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>西宁</t>
+  </si>
+  <si>
+    <t>西双版纳</t>
+  </si>
+  <si>
+    <t>锡林郭勒</t>
+  </si>
+  <si>
+    <t>仙桃</t>
+  </si>
+  <si>
+    <t>咸宁</t>
+  </si>
+  <si>
+    <t>咸阳</t>
+  </si>
+  <si>
+    <t>湘潭</t>
+  </si>
+  <si>
+    <t>湘西</t>
+  </si>
+  <si>
+    <t>襄阳</t>
+  </si>
+  <si>
+    <t>孝感</t>
+  </si>
+  <si>
+    <t>忻州</t>
+  </si>
+  <si>
+    <t>新疆生产建设兵团</t>
+  </si>
+  <si>
+    <t>新乡</t>
+  </si>
+  <si>
+    <t>新余</t>
+  </si>
+  <si>
+    <t>信阳</t>
+  </si>
+  <si>
+    <t>邢台</t>
+  </si>
+  <si>
+    <t>兴安</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>许昌</t>
+  </si>
+  <si>
+    <t>宣城</t>
+  </si>
+  <si>
+    <t>雅安</t>
+  </si>
+  <si>
+    <t>烟台</t>
+  </si>
+  <si>
+    <t>延安</t>
+  </si>
+  <si>
+    <t>延边</t>
+  </si>
+  <si>
+    <t>盐城</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>阳江</t>
+  </si>
+  <si>
+    <t>阳泉</t>
+  </si>
+  <si>
+    <t>伊春</t>
+  </si>
+  <si>
+    <t>伊犁</t>
+  </si>
+  <si>
+    <t>宜宾</t>
+  </si>
+  <si>
+    <t>宜昌</t>
+  </si>
+  <si>
+    <t>宜春</t>
+  </si>
+  <si>
+    <t>益阳</t>
+  </si>
+  <si>
+    <t>银川</t>
+  </si>
+  <si>
+    <t>鹰潭</t>
+  </si>
+  <si>
+    <t>营口</t>
+  </si>
+  <si>
+    <t>永州</t>
+  </si>
+  <si>
+    <t>榆林</t>
+  </si>
+  <si>
+    <t>玉林</t>
+  </si>
+  <si>
+    <t>玉树</t>
+  </si>
+  <si>
+    <t>玉溪</t>
+  </si>
+  <si>
+    <t>岳阳</t>
+  </si>
+  <si>
+    <t>云浮</t>
+  </si>
+  <si>
+    <t>运城</t>
+  </si>
+  <si>
+    <t>枣庄</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>张家界</t>
+  </si>
+  <si>
+    <t>张家口</t>
+  </si>
+  <si>
+    <t>张掖</t>
+  </si>
+  <si>
+    <t>漳州</t>
+  </si>
+  <si>
+    <t>长春</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>长治</t>
+  </si>
+  <si>
+    <t>昭通</t>
+  </si>
+  <si>
+    <t>肇庆</t>
+  </si>
+  <si>
+    <t>镇江</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>中卫</t>
   </si>
   <si>
     <t>重庆</t>
   </si>
   <si>
-    <t>石家庄</t>
-  </si>
-  <si>
-    <t>唐山</t>
-  </si>
-  <si>
-    <t>秦皇岛</t>
-  </si>
-  <si>
-    <t>邯郸</t>
-  </si>
-  <si>
-    <t>邢台</t>
-  </si>
-  <si>
-    <t>保定</t>
-  </si>
-  <si>
-    <t>张家口</t>
-  </si>
-  <si>
-    <t>承德</t>
-  </si>
-  <si>
-    <t>沧州</t>
-  </si>
-  <si>
-    <t>廊坊</t>
-  </si>
-  <si>
-    <t>衡水</t>
-  </si>
-  <si>
-    <t>太原</t>
-  </si>
-  <si>
-    <t>大同</t>
-  </si>
-  <si>
-    <t>阳泉</t>
-  </si>
-  <si>
-    <t>长治</t>
-  </si>
-  <si>
-    <t>晋城</t>
-  </si>
-  <si>
-    <t>朔州</t>
-  </si>
-  <si>
-    <t>晋中</t>
-  </si>
-  <si>
-    <t>运城</t>
-  </si>
-  <si>
-    <t>忻州</t>
-  </si>
-  <si>
-    <t>临汾</t>
-  </si>
-  <si>
-    <t>吕梁</t>
-  </si>
-  <si>
-    <t>呼和浩特</t>
-  </si>
-  <si>
-    <t>包头</t>
-  </si>
-  <si>
-    <t>乌海</t>
-  </si>
-  <si>
-    <t>赤峰</t>
-  </si>
-  <si>
-    <t>通辽</t>
-  </si>
-  <si>
-    <t>鄂尔多斯</t>
-  </si>
-  <si>
-    <t>呼伦贝尔</t>
-  </si>
-  <si>
-    <t>巴彦卓尔</t>
-  </si>
-  <si>
-    <t>乌兰察布</t>
-  </si>
-  <si>
-    <t>兴安</t>
-  </si>
-  <si>
-    <t>锡林郭勒</t>
-  </si>
-  <si>
-    <t>阿拉善</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t>大连</t>
-  </si>
-  <si>
-    <t>鞍山</t>
-  </si>
-  <si>
-    <t>抚顺</t>
-  </si>
-  <si>
-    <t>本溪</t>
-  </si>
-  <si>
-    <t>丹东</t>
-  </si>
-  <si>
-    <t>锦州</t>
-  </si>
-  <si>
-    <t>营口</t>
-  </si>
-  <si>
-    <t>阜新</t>
-  </si>
-  <si>
-    <t>辽阳</t>
-  </si>
-  <si>
-    <t>盘锦</t>
-  </si>
-  <si>
-    <t>铁岭</t>
-  </si>
-  <si>
-    <t>朝阳</t>
-  </si>
-  <si>
-    <t>葫芦岛</t>
-  </si>
-  <si>
-    <t>长春</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
-    <t>四平</t>
-  </si>
-  <si>
-    <t>辽源</t>
-  </si>
-  <si>
-    <t>通化</t>
-  </si>
-  <si>
-    <t>白山</t>
-  </si>
-  <si>
-    <t>松原</t>
-  </si>
-  <si>
-    <t>白城</t>
-  </si>
-  <si>
-    <t>延边</t>
-  </si>
-  <si>
-    <t>哈尔滨</t>
-  </si>
-  <si>
-    <t>齐齐哈尔</t>
-  </si>
-  <si>
-    <t>鸡西</t>
-  </si>
-  <si>
-    <t>鹤岗</t>
-  </si>
-  <si>
-    <t>双鸭山</t>
-  </si>
-  <si>
-    <t>大庆</t>
-  </si>
-  <si>
-    <t>伊春</t>
-  </si>
-  <si>
-    <t>佳木斯</t>
-  </si>
-  <si>
-    <t>七台河</t>
-  </si>
-  <si>
-    <t>牡丹江</t>
-  </si>
-  <si>
-    <t>黑河</t>
-  </si>
-  <si>
-    <t>绥化</t>
-  </si>
-  <si>
-    <t>大兴安岭</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>无锡</t>
-  </si>
-  <si>
-    <t>徐州</t>
-  </si>
-  <si>
-    <t>常州</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>南通</t>
-  </si>
-  <si>
-    <t>连云港</t>
-  </si>
-  <si>
-    <t>淮安</t>
-  </si>
-  <si>
-    <t>盐城</t>
-  </si>
-  <si>
-    <t>扬州</t>
-  </si>
-  <si>
-    <t>镇江</t>
-  </si>
-  <si>
-    <t>泰州</t>
-  </si>
-  <si>
-    <t>宿迁</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>嘉兴</t>
-  </si>
-  <si>
-    <t>湖州</t>
-  </si>
-  <si>
-    <t>绍兴</t>
-  </si>
-  <si>
-    <t>金华</t>
-  </si>
-  <si>
-    <t>衢州</t>
-  </si>
-  <si>
     <t>舟山</t>
   </si>
   <si>
-    <t>台州</t>
-  </si>
-  <si>
-    <t>丽水</t>
-  </si>
-  <si>
-    <t>合肥</t>
-  </si>
-  <si>
-    <t>芜湖</t>
-  </si>
-  <si>
-    <t>蚌埠</t>
-  </si>
-  <si>
-    <t>淮南</t>
-  </si>
-  <si>
-    <t>马鞍山</t>
-  </si>
-  <si>
-    <t>淮北</t>
-  </si>
-  <si>
-    <t>铜陵</t>
-  </si>
-  <si>
-    <t>安庆</t>
-  </si>
-  <si>
-    <t>黄山</t>
-  </si>
-  <si>
-    <t>滁州</t>
-  </si>
-  <si>
-    <t>阜阳</t>
-  </si>
-  <si>
-    <t>宿州</t>
-  </si>
-  <si>
-    <t>六安</t>
-  </si>
-  <si>
-    <t>毫州</t>
-  </si>
-  <si>
-    <t>池州</t>
-  </si>
-  <si>
-    <t>宣城</t>
-  </si>
-  <si>
-    <t>福州</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t>莆田</t>
-  </si>
-  <si>
-    <t>三明</t>
-  </si>
-  <si>
-    <t>泉州</t>
-  </si>
-  <si>
-    <t>漳州</t>
-  </si>
-  <si>
-    <t>南平</t>
-  </si>
-  <si>
-    <t>龙岩</t>
-  </si>
-  <si>
-    <t>宁德</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>景德镇</t>
-  </si>
-  <si>
-    <t>萍乡</t>
-  </si>
-  <si>
-    <t>九江</t>
-  </si>
-  <si>
-    <t>新余</t>
-  </si>
-  <si>
-    <t>鹰潭</t>
-  </si>
-  <si>
-    <t>赣州</t>
-  </si>
-  <si>
-    <t>吉安</t>
-  </si>
-  <si>
-    <t>宜春</t>
-  </si>
-  <si>
-    <t>抚州</t>
-  </si>
-  <si>
-    <t>上饶</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>青岛</t>
+    <t>周口</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>株洲</t>
+  </si>
+  <si>
+    <t>驻马店</t>
+  </si>
+  <si>
+    <t>资阳</t>
   </si>
   <si>
     <t>淄博</t>
   </si>
   <si>
-    <t>枣庄</t>
-  </si>
-  <si>
-    <t>东营</t>
-  </si>
-  <si>
-    <t>烟台</t>
-  </si>
-  <si>
-    <t>潍坊</t>
-  </si>
-  <si>
-    <t>济宁</t>
-  </si>
-  <si>
-    <t>泰安</t>
-  </si>
-  <si>
-    <t>威海</t>
-  </si>
-  <si>
-    <t>日照</t>
-  </si>
-  <si>
-    <t>临沂</t>
-  </si>
-  <si>
-    <t>德州</t>
-  </si>
-  <si>
-    <t>聊城</t>
-  </si>
-  <si>
-    <t>滨州</t>
-  </si>
-  <si>
-    <t>菏泽</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>开封</t>
-  </si>
-  <si>
-    <t>洛阳</t>
-  </si>
-  <si>
-    <t>平顶山</t>
-  </si>
-  <si>
-    <t>安阳</t>
-  </si>
-  <si>
-    <t>鹤壁</t>
-  </si>
-  <si>
-    <t>新乡</t>
-  </si>
-  <si>
-    <t>焦作</t>
-  </si>
-  <si>
-    <t>濮阳</t>
-  </si>
-  <si>
-    <t>许昌</t>
-  </si>
-  <si>
-    <t>漯河</t>
-  </si>
-  <si>
-    <t>三门峡</t>
-  </si>
-  <si>
-    <t>南阳</t>
-  </si>
-  <si>
-    <t>商丘</t>
-  </si>
-  <si>
-    <t>信阳</t>
-  </si>
-  <si>
-    <t>周口</t>
-  </si>
-  <si>
-    <t>驻马店</t>
-  </si>
-  <si>
-    <t>济源</t>
-  </si>
-  <si>
-    <t>武汉</t>
-  </si>
-  <si>
-    <t>黄石</t>
-  </si>
-  <si>
-    <t>十堰</t>
-  </si>
-  <si>
-    <t>宜昌</t>
-  </si>
-  <si>
-    <t>襄阳</t>
-  </si>
-  <si>
-    <t>鄂州</t>
-  </si>
-  <si>
-    <t>荆门</t>
-  </si>
-  <si>
-    <t>孝感</t>
-  </si>
-  <si>
-    <t>荆州</t>
-  </si>
-  <si>
-    <t>黄冈</t>
-  </si>
-  <si>
-    <t>咸宁</t>
-  </si>
-  <si>
-    <t>随州</t>
-  </si>
-  <si>
-    <t>恩施</t>
-  </si>
-  <si>
-    <t>仙桃</t>
-  </si>
-  <si>
-    <t>潜江</t>
-  </si>
-  <si>
-    <t>天门</t>
-  </si>
-  <si>
-    <t>神农架</t>
-  </si>
-  <si>
-    <t>拉萨</t>
-  </si>
-  <si>
-    <t>昌都</t>
-  </si>
-  <si>
-    <t>山南</t>
-  </si>
-  <si>
-    <t>日喀则</t>
-  </si>
-  <si>
-    <t>那曲</t>
-  </si>
-  <si>
-    <t>阿里</t>
-  </si>
-  <si>
-    <t>林芝</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>株洲</t>
-  </si>
-  <si>
-    <t>湘潭</t>
-  </si>
-  <si>
-    <t>衡阳</t>
-  </si>
-  <si>
-    <t>邵阳</t>
-  </si>
-  <si>
-    <t>岳阳</t>
-  </si>
-  <si>
-    <t>常德</t>
-  </si>
-  <si>
-    <t>张家界</t>
-  </si>
-  <si>
-    <t>益阳</t>
-  </si>
-  <si>
-    <t>郴州</t>
-  </si>
-  <si>
-    <t>永州</t>
-  </si>
-  <si>
-    <t>怀化</t>
-  </si>
-  <si>
-    <t>娄底</t>
-  </si>
-  <si>
-    <t>湘西</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>韶关</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>珠海</t>
-  </si>
-  <si>
-    <t>汕头</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>江门</t>
-  </si>
-  <si>
-    <t>湛江</t>
-  </si>
-  <si>
-    <t>茂名</t>
-  </si>
-  <si>
-    <t>肇庆</t>
-  </si>
-  <si>
-    <t>惠州</t>
-  </si>
-  <si>
-    <t>梅州</t>
-  </si>
-  <si>
-    <t>汕尾</t>
-  </si>
-  <si>
-    <t>河源</t>
-  </si>
-  <si>
-    <t>阳江</t>
-  </si>
-  <si>
-    <t>清远</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>中山</t>
-  </si>
-  <si>
-    <t>潮州</t>
-  </si>
-  <si>
-    <t>揭阳</t>
-  </si>
-  <si>
-    <t>云浮</t>
-  </si>
-  <si>
-    <t>南宁</t>
-  </si>
-  <si>
-    <t>柳州</t>
-  </si>
-  <si>
-    <t>桂林</t>
-  </si>
-  <si>
-    <t>梧州</t>
-  </si>
-  <si>
-    <t>北海</t>
-  </si>
-  <si>
-    <t>防城港</t>
-  </si>
-  <si>
-    <t>钦州</t>
-  </si>
-  <si>
-    <t>贵港</t>
-  </si>
-  <si>
-    <t>玉林</t>
-  </si>
-  <si>
-    <t>百色</t>
-  </si>
-  <si>
-    <t>贺州</t>
-  </si>
-  <si>
-    <t>河池</t>
-  </si>
-  <si>
-    <t>来宾</t>
-  </si>
-  <si>
-    <t>崇左</t>
-  </si>
-  <si>
-    <t>海口</t>
-  </si>
-  <si>
-    <t>三亚</t>
-  </si>
-  <si>
-    <t>儋州</t>
-  </si>
-  <si>
-    <t>三沙</t>
-  </si>
-  <si>
-    <t>贵阳</t>
-  </si>
-  <si>
-    <t>六盘水</t>
+    <t>自贡</t>
   </si>
   <si>
     <t>遵义</t>
-  </si>
-  <si>
-    <t>安顺</t>
-  </si>
-  <si>
-    <t>铜仁</t>
-  </si>
-  <si>
-    <t>黔西南</t>
-  </si>
-  <si>
-    <t>毕节</t>
-  </si>
-  <si>
-    <t>黔东南</t>
-  </si>
-  <si>
-    <t>黔南</t>
-  </si>
-  <si>
-    <t>昆明</t>
-  </si>
-  <si>
-    <t>玉溪</t>
-  </si>
-  <si>
-    <t>宝山</t>
-  </si>
-  <si>
-    <t>昭通</t>
-  </si>
-  <si>
-    <t>丽江</t>
-  </si>
-  <si>
-    <t>普洱</t>
-  </si>
-  <si>
-    <t>临沧</t>
-  </si>
-  <si>
-    <t>楚雄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">红河 </t>
-  </si>
-  <si>
-    <t>文山</t>
-  </si>
-  <si>
-    <t>西双版纳</t>
-  </si>
-  <si>
-    <t>大理</t>
-  </si>
-  <si>
-    <t>德宏</t>
-  </si>
-  <si>
-    <t>怒江</t>
-  </si>
-  <si>
-    <t>迪庆</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>自贡</t>
-  </si>
-  <si>
-    <t>攀枝花</t>
-  </si>
-  <si>
-    <t>泸州</t>
-  </si>
-  <si>
-    <t>德阳</t>
-  </si>
-  <si>
-    <t>绵阳</t>
-  </si>
-  <si>
-    <t>广元</t>
-  </si>
-  <si>
-    <t>遂宁</t>
-  </si>
-  <si>
-    <t>内江</t>
-  </si>
-  <si>
-    <t>乐山</t>
-  </si>
-  <si>
-    <t>南充</t>
-  </si>
-  <si>
-    <t>眉山</t>
-  </si>
-  <si>
-    <t>宜宾</t>
-  </si>
-  <si>
-    <t>广安</t>
-  </si>
-  <si>
-    <t>达州</t>
-  </si>
-  <si>
-    <t>雅安</t>
-  </si>
-  <si>
-    <t>巴中</t>
-  </si>
-  <si>
-    <t>资阳</t>
-  </si>
-  <si>
-    <t>阿坝</t>
-  </si>
-  <si>
-    <t>甘孜</t>
-  </si>
-  <si>
-    <t>凉山</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>铜川</t>
-  </si>
-  <si>
-    <t>宝鸡</t>
-  </si>
-  <si>
-    <t>咸阳</t>
-  </si>
-  <si>
-    <t>渭南</t>
-  </si>
-  <si>
-    <t>延安</t>
-  </si>
-  <si>
-    <t>汉中</t>
-  </si>
-  <si>
-    <t>榆林</t>
-  </si>
-  <si>
-    <t>安康</t>
-  </si>
-  <si>
-    <t>商洛</t>
-  </si>
-  <si>
-    <t>西宁</t>
-  </si>
-  <si>
-    <t>海东</t>
-  </si>
-  <si>
-    <t>海北</t>
-  </si>
-  <si>
-    <t>黄南</t>
-  </si>
-  <si>
-    <t>海南</t>
-  </si>
-  <si>
-    <t>果洛</t>
-  </si>
-  <si>
-    <t>玉树</t>
-  </si>
-  <si>
-    <t>海西</t>
-  </si>
-  <si>
-    <t>兰州</t>
-  </si>
-  <si>
-    <t>嘉峪关</t>
-  </si>
-  <si>
-    <t>金昌</t>
-  </si>
-  <si>
-    <t>白银</t>
-  </si>
-  <si>
-    <t>天水</t>
-  </si>
-  <si>
-    <t>武威</t>
-  </si>
-  <si>
-    <t>张掖</t>
-  </si>
-  <si>
-    <t>平凉</t>
-  </si>
-  <si>
-    <t>酒泉</t>
-  </si>
-  <si>
-    <t>庆阳</t>
-  </si>
-  <si>
-    <t>定西</t>
-  </si>
-  <si>
-    <t>陇南</t>
-  </si>
-  <si>
-    <t>临夏</t>
-  </si>
-  <si>
-    <t>甘南</t>
-  </si>
-  <si>
-    <t>银川</t>
-  </si>
-  <si>
-    <t>石嘴山</t>
-  </si>
-  <si>
-    <t>吴忠</t>
-  </si>
-  <si>
-    <t>固原</t>
-  </si>
-  <si>
-    <t>中卫</t>
-  </si>
-  <si>
-    <t>乌鲁木齐</t>
-  </si>
-  <si>
-    <t>昌吉</t>
-  </si>
-  <si>
-    <t>喀什</t>
-  </si>
-  <si>
-    <t>伊犁</t>
-  </si>
-  <si>
-    <t>阿克苏</t>
-  </si>
-  <si>
-    <t>巴音郭楞</t>
-  </si>
-  <si>
-    <t>塔城</t>
-  </si>
-  <si>
-    <t>阿勒泰</t>
-  </si>
-  <si>
-    <t>吐鲁番</t>
-  </si>
-  <si>
-    <t>克孜勒苏</t>
-  </si>
-  <si>
-    <t>哈密</t>
-  </si>
-  <si>
-    <t>博尔塔拉</t>
-  </si>
-  <si>
-    <t>克拉玛依</t>
-  </si>
-  <si>
-    <t>新疆生产建设兵团</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,30 +1096,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1114,14 +1114,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,6 +1153,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1211,7 +1218,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,55 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,31 +1278,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,6 +1314,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1352,7 +1338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,6 +1422,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1417,21 +1445,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1464,6 +1477,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,210 +1550,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1996,18 +2030,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2859"/>
+  <dimension ref="A1:H2861"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="G340" sqref="G340"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>876</v>
+        <v>713</v>
       </c>
       <c r="C2">
-        <v>520</v>
+        <v>639</v>
       </c>
       <c r="D2">
         <v>352</v>
@@ -2046,10 +2081,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>889</v>
+        <v>465</v>
       </c>
       <c r="C3">
-        <v>535</v>
+        <v>465</v>
       </c>
       <c r="D3">
         <v>352</v>
@@ -2063,10 +2098,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>953</v>
+        <v>691</v>
       </c>
       <c r="C4">
-        <v>661</v>
+        <v>501</v>
       </c>
       <c r="D4">
         <v>352</v>
@@ -2080,10 +2115,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>772</v>
+        <v>560</v>
       </c>
       <c r="C5">
-        <v>694</v>
+        <v>378</v>
       </c>
       <c r="D5">
         <v>352</v>
@@ -2097,10 +2132,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>852</v>
+        <v>438</v>
       </c>
       <c r="C6">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="D6">
         <v>352</v>
@@ -2114,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>902</v>
+        <v>792</v>
       </c>
       <c r="C7">
-        <v>530</v>
+        <v>647</v>
       </c>
       <c r="D7">
         <v>352</v>
@@ -2131,10 +2166,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="C8">
-        <v>518</v>
+        <v>678</v>
       </c>
       <c r="D8">
         <v>352</v>
@@ -2148,10 +2183,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>858</v>
+        <v>749</v>
       </c>
       <c r="C9">
-        <v>578</v>
+        <v>749</v>
       </c>
       <c r="D9">
         <v>352</v>
@@ -2165,10 +2200,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C10">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="D10">
         <v>352</v>
@@ -2182,10 +2217,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>860</v>
+        <v>956</v>
       </c>
       <c r="C11">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="D11">
         <v>352</v>
@@ -2199,10 +2234,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>860</v>
+        <v>751</v>
       </c>
       <c r="C12">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D12">
         <v>352</v>
@@ -2216,10 +2251,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>886</v>
+        <v>547</v>
       </c>
       <c r="C13">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="D13">
         <v>352</v>
@@ -2233,10 +2268,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>887</v>
+        <v>767</v>
       </c>
       <c r="C14">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="D14">
         <v>352</v>
@@ -2250,10 +2285,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>879</v>
+        <v>945</v>
       </c>
       <c r="C15">
-        <v>534</v>
+        <v>430</v>
       </c>
       <c r="D15">
         <v>352</v>
@@ -2267,10 +2302,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="C16">
-        <v>557</v>
+        <v>469</v>
       </c>
       <c r="D16">
         <v>352</v>
@@ -2284,10 +2319,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>829</v>
+        <v>736</v>
       </c>
       <c r="C17">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="D17">
         <v>352</v>
@@ -2301,10 +2336,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>845</v>
+        <v>756</v>
       </c>
       <c r="C18">
-        <v>527</v>
+        <v>779</v>
       </c>
       <c r="D18">
         <v>352</v>
@@ -2318,10 +2353,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>847</v>
+        <v>902</v>
       </c>
       <c r="C19">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="D19">
         <v>352</v>
@@ -2335,10 +2370,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="C20">
-        <v>579</v>
+        <v>493</v>
       </c>
       <c r="D20">
         <v>352</v>
@@ -2352,10 +2387,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>841</v>
+        <v>770</v>
       </c>
       <c r="C21">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="D21">
         <v>352</v>
@@ -2369,10 +2404,10 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>831</v>
+        <v>651</v>
       </c>
       <c r="C22">
-        <v>530</v>
+        <v>762</v>
       </c>
       <c r="D22">
         <v>352</v>
@@ -2386,10 +2421,10 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="C23">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="D23">
         <v>352</v>
@@ -2403,10 +2438,10 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="C24">
-        <v>606</v>
+        <v>819</v>
       </c>
       <c r="D24">
         <v>352</v>
@@ -2420,10 +2455,10 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>829</v>
+        <v>876</v>
       </c>
       <c r="C25">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="D25">
         <v>352</v>
@@ -2437,10 +2472,10 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>816</v>
+        <v>965</v>
       </c>
       <c r="C26">
-        <v>584</v>
+        <v>493</v>
       </c>
       <c r="D26">
         <v>352</v>
@@ -2454,10 +2489,10 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>819</v>
+        <v>738</v>
       </c>
       <c r="C27">
-        <v>571</v>
+        <v>735</v>
       </c>
       <c r="D27">
         <v>352</v>
@@ -2471,10 +2506,10 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>817</v>
+        <v>905</v>
       </c>
       <c r="C28">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="D28">
         <v>352</v>
@@ -2488,10 +2523,10 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>807</v>
+        <v>479</v>
       </c>
       <c r="C29">
-        <v>493</v>
+        <v>404</v>
       </c>
       <c r="D29">
         <v>352</v>
@@ -2505,10 +2540,10 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>765</v>
+        <v>887</v>
       </c>
       <c r="C30">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="D30">
         <v>352</v>
@@ -2522,10 +2557,10 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>850</v>
+        <v>639</v>
       </c>
       <c r="C31">
-        <v>475</v>
+        <v>656</v>
       </c>
       <c r="D31">
         <v>352</v>
@@ -2539,10 +2574,10 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>941</v>
+        <v>581</v>
       </c>
       <c r="C32">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="D32">
         <v>352</v>
@@ -2556,10 +2591,10 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="C33">
-        <v>547</v>
+        <v>694</v>
       </c>
       <c r="D33">
         <v>352</v>
@@ -2573,10 +2608,10 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="C34">
-        <v>366</v>
+        <v>653</v>
       </c>
       <c r="D34">
         <v>352</v>
@@ -2590,10 +2625,10 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>751</v>
+        <v>916</v>
       </c>
       <c r="C35">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D35">
         <v>352</v>
@@ -2607,10 +2642,10 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>832</v>
+        <v>900</v>
       </c>
       <c r="C36">
-        <v>484</v>
+        <v>783</v>
       </c>
       <c r="D36">
         <v>352</v>
@@ -2624,10 +2659,10 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>922</v>
+        <v>851</v>
       </c>
       <c r="C37">
-        <v>433</v>
+        <v>752</v>
       </c>
       <c r="D37">
         <v>352</v>
@@ -2641,10 +2676,10 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>857</v>
+        <v>717</v>
       </c>
       <c r="C38">
-        <v>463</v>
+        <v>664</v>
       </c>
       <c r="D38">
         <v>352</v>
@@ -2658,10 +2693,10 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>691</v>
+        <v>886</v>
       </c>
       <c r="C39">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D39">
         <v>352</v>
@@ -2675,10 +2710,10 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>946</v>
+        <v>898</v>
       </c>
       <c r="C40">
-        <v>476</v>
+        <v>680</v>
       </c>
       <c r="D40">
         <v>352</v>
@@ -2692,10 +2727,10 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>943</v>
+        <v>850</v>
       </c>
       <c r="C41">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="D41">
         <v>352</v>
@@ -2709,10 +2744,10 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>956</v>
+        <v>764</v>
       </c>
       <c r="C42">
-        <v>497</v>
+        <v>809</v>
       </c>
       <c r="D42">
         <v>352</v>
@@ -2726,10 +2761,10 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>973</v>
+        <v>906</v>
       </c>
       <c r="C43">
-        <v>480</v>
+        <v>641</v>
       </c>
       <c r="D43">
         <v>352</v>
@@ -2743,10 +2778,10 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>965</v>
+        <v>687</v>
       </c>
       <c r="C44">
-        <v>493</v>
+        <v>759</v>
       </c>
       <c r="D44">
         <v>352</v>
@@ -2760,10 +2795,10 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>971</v>
+        <v>775</v>
       </c>
       <c r="C45">
-        <v>503</v>
+        <v>664</v>
       </c>
       <c r="D45">
         <v>352</v>
@@ -2777,10 +2812,10 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>934</v>
+        <v>666</v>
       </c>
       <c r="C46">
-        <v>493</v>
+        <v>747</v>
       </c>
       <c r="D46">
         <v>352</v>
@@ -2794,10 +2829,10 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C47">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D47">
         <v>352</v>
@@ -2811,10 +2846,10 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>941</v>
+        <v>962</v>
       </c>
       <c r="C48">
-        <v>479</v>
+        <v>418</v>
       </c>
       <c r="D48">
         <v>352</v>
@@ -2828,10 +2863,10 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>951</v>
+        <v>845</v>
       </c>
       <c r="C49">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="D49">
         <v>352</v>
@@ -2845,10 +2880,10 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C50">
-        <v>501</v>
+        <v>314</v>
       </c>
       <c r="D50">
         <v>352</v>
@@ -2862,10 +2897,10 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C51">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="D51">
         <v>352</v>
@@ -2879,10 +2914,10 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>916</v>
+        <v>798</v>
       </c>
       <c r="C52">
-        <v>494</v>
+        <v>857</v>
       </c>
       <c r="D52">
         <v>352</v>
@@ -2896,10 +2931,10 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>919</v>
+        <v>633</v>
       </c>
       <c r="C53">
-        <v>511</v>
+        <v>764</v>
       </c>
       <c r="D53">
         <v>352</v>
@@ -2913,10 +2948,10 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>979</v>
+        <v>733</v>
       </c>
       <c r="C54">
-        <v>437</v>
+        <v>663</v>
       </c>
       <c r="D54">
         <v>352</v>
@@ -2930,10 +2965,10 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>994</v>
+        <v>886</v>
       </c>
       <c r="C55">
-        <v>448</v>
+        <v>569</v>
       </c>
       <c r="D55">
         <v>352</v>
@@ -2947,10 +2982,10 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>966</v>
+        <v>664</v>
       </c>
       <c r="C56">
-        <v>459</v>
+        <v>715</v>
       </c>
       <c r="D56">
         <v>352</v>
@@ -2964,10 +2999,10 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>975</v>
+        <v>732</v>
       </c>
       <c r="C57">
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="D57">
         <v>352</v>
@@ -2981,10 +3016,10 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>987</v>
+        <v>859</v>
       </c>
       <c r="C58">
-        <v>477</v>
+        <v>795</v>
       </c>
       <c r="D58">
         <v>352</v>
@@ -2998,10 +3033,10 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>1000</v>
+        <v>906</v>
       </c>
       <c r="C59">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="D59">
         <v>352</v>
@@ -3015,10 +3050,10 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>955</v>
+        <v>781</v>
       </c>
       <c r="C60">
-        <v>436</v>
+        <v>547</v>
       </c>
       <c r="D60">
         <v>352</v>
@@ -3032,10 +3067,10 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>945</v>
+        <v>866</v>
       </c>
       <c r="C61">
-        <v>430</v>
+        <v>681</v>
       </c>
       <c r="D61">
         <v>352</v>
@@ -3049,10 +3084,10 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>1025</v>
+        <v>802</v>
       </c>
       <c r="C62">
-        <v>448</v>
+        <v>684</v>
       </c>
       <c r="D62">
         <v>352</v>
@@ -3066,10 +3101,10 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="C63">
-        <v>424</v>
+        <v>816</v>
       </c>
       <c r="D63">
         <v>352</v>
@@ -3083,10 +3118,10 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>951</v>
+        <v>847</v>
       </c>
       <c r="C64">
-        <v>405</v>
+        <v>794</v>
       </c>
       <c r="D64">
         <v>352</v>
@@ -3100,10 +3135,10 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>1044</v>
+        <v>932</v>
       </c>
       <c r="C65">
-        <v>404</v>
+        <v>742</v>
       </c>
       <c r="D65">
         <v>352</v>
@@ -3117,10 +3152,10 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>1025</v>
+        <v>973</v>
       </c>
       <c r="C66">
-        <v>381</v>
+        <v>480</v>
       </c>
       <c r="D66">
         <v>352</v>
@@ -3134,10 +3169,10 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>1030</v>
+        <v>894</v>
       </c>
       <c r="C67">
-        <v>394</v>
+        <v>729</v>
       </c>
       <c r="D67">
         <v>352</v>
@@ -3151,10 +3186,10 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="C68">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="D68">
         <v>352</v>
@@ -3168,10 +3203,10 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>1000</v>
+        <v>878</v>
       </c>
       <c r="C69">
-        <v>372</v>
+        <v>639</v>
       </c>
       <c r="D69">
         <v>352</v>
@@ -3185,10 +3220,10 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>1046</v>
+        <v>699</v>
       </c>
       <c r="C70">
-        <v>374</v>
+        <v>624</v>
       </c>
       <c r="D70">
         <v>352</v>
@@ -3202,10 +3237,10 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>1023</v>
+        <v>671</v>
       </c>
       <c r="C71">
-        <v>404</v>
+        <v>671</v>
       </c>
       <c r="D71">
         <v>352</v>
@@ -3219,10 +3254,10 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>1026</v>
+        <v>879</v>
       </c>
       <c r="C72">
-        <v>429</v>
+        <v>761</v>
       </c>
       <c r="D72">
         <v>352</v>
@@ -3236,10 +3271,10 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>972</v>
+        <v>756</v>
       </c>
       <c r="C73">
-        <v>362</v>
+        <v>593</v>
       </c>
       <c r="D73">
         <v>352</v>
@@ -3253,10 +3288,10 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>967</v>
+        <v>767</v>
       </c>
       <c r="C74">
-        <v>400</v>
+        <v>679</v>
       </c>
       <c r="D74">
         <v>352</v>
@@ -3270,10 +3305,10 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>939</v>
+        <v>747</v>
       </c>
       <c r="C75">
-        <v>314</v>
+        <v>652</v>
       </c>
       <c r="D75">
         <v>352</v>
@@ -3287,10 +3322,10 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>922</v>
+        <v>853</v>
       </c>
       <c r="C76">
-        <v>652</v>
+        <v>799</v>
       </c>
       <c r="D76">
         <v>352</v>
@@ -3304,10 +3339,10 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>935</v>
+        <v>798</v>
       </c>
       <c r="C77">
-        <v>660</v>
+        <v>791</v>
       </c>
       <c r="D77">
         <v>352</v>
@@ -3321,10 +3356,10 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>907</v>
+        <v>758</v>
       </c>
       <c r="C78">
-        <v>616</v>
+        <v>739</v>
       </c>
       <c r="D78">
         <v>352</v>
@@ -3338,10 +3373,10 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>925</v>
+        <v>816</v>
       </c>
       <c r="C79">
-        <v>653</v>
+        <v>760</v>
       </c>
       <c r="D79">
         <v>352</v>
@@ -3355,10 +3390,10 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>940</v>
+        <v>678</v>
       </c>
       <c r="C80">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="D80">
         <v>352</v>
@@ -3372,10 +3407,10 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>943</v>
+        <v>1000</v>
       </c>
       <c r="C81">
-        <v>643</v>
+        <v>424</v>
       </c>
       <c r="D81">
         <v>352</v>
@@ -3389,10 +3424,10 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>918</v>
+        <v>628</v>
       </c>
       <c r="C82">
-        <v>611</v>
+        <v>469</v>
       </c>
       <c r="D82">
         <v>352</v>
@@ -3406,10 +3441,10 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>914</v>
+        <v>683</v>
       </c>
       <c r="C83">
-        <v>631</v>
+        <v>555</v>
       </c>
       <c r="D83">
         <v>352</v>
@@ -3423,10 +3458,10 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>935</v>
+        <v>703</v>
       </c>
       <c r="C84">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="D84">
         <v>352</v>
@@ -3440,10 +3475,10 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="C85">
-        <v>638</v>
+        <v>850</v>
       </c>
       <c r="D85">
         <v>352</v>
@@ -3457,10 +3492,10 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>927</v>
+        <v>675</v>
       </c>
       <c r="C86">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="D86">
         <v>352</v>
@@ -3474,10 +3509,10 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>935</v>
+        <v>613</v>
       </c>
       <c r="C87">
-        <v>638</v>
+        <v>551</v>
       </c>
       <c r="D87">
         <v>352</v>
@@ -3491,10 +3526,10 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>914</v>
+        <v>858</v>
       </c>
       <c r="C88">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="D88">
         <v>352</v>
@@ -3508,10 +3543,10 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>931</v>
+        <v>763</v>
       </c>
       <c r="C89">
-        <v>681</v>
+        <v>637</v>
       </c>
       <c r="D89">
         <v>352</v>
@@ -3525,10 +3560,10 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="C90">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D90">
         <v>352</v>
@@ -3542,10 +3577,10 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>944</v>
+        <v>879</v>
       </c>
       <c r="C91">
-        <v>714</v>
+        <v>627</v>
       </c>
       <c r="D91">
         <v>352</v>
@@ -3559,10 +3594,10 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>946</v>
+        <v>900</v>
       </c>
       <c r="C92">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="D92">
         <v>352</v>
@@ -3571,15 +3606,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B93">
-        <v>930</v>
+        <v>468</v>
       </c>
       <c r="C93">
-        <v>673</v>
+        <v>546</v>
       </c>
       <c r="D93">
         <v>352</v>
@@ -3587,16 +3622,17 @@
       <c r="E93">
         <v>288</v>
       </c>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B94">
-        <v>941</v>
+        <v>772</v>
       </c>
       <c r="C94">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="D94">
         <v>352</v>
@@ -3610,10 +3646,10 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>937</v>
+        <v>875</v>
       </c>
       <c r="C95">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="D95">
         <v>352</v>
@@ -3627,10 +3663,10 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>920</v>
+        <v>877</v>
       </c>
       <c r="C96">
-        <v>697</v>
+        <v>605</v>
       </c>
       <c r="D96">
         <v>352</v>
@@ -3644,10 +3680,10 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>967</v>
+        <v>829</v>
       </c>
       <c r="C97">
-        <v>675</v>
+        <v>780</v>
       </c>
       <c r="D97">
         <v>352</v>
@@ -3661,10 +3697,10 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>954</v>
+        <v>854</v>
       </c>
       <c r="C98">
-        <v>701</v>
+        <v>598</v>
       </c>
       <c r="D98">
         <v>352</v>
@@ -3678,10 +3714,10 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>930</v>
+        <v>1025</v>
       </c>
       <c r="C99">
-        <v>714</v>
+        <v>381</v>
       </c>
       <c r="D99">
         <v>352</v>
@@ -3695,10 +3731,10 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>900</v>
+        <v>972</v>
       </c>
       <c r="C100">
-        <v>655</v>
+        <v>362</v>
       </c>
       <c r="D100">
         <v>352</v>
@@ -3712,10 +3748,10 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>909</v>
+        <v>875</v>
       </c>
       <c r="C101">
-        <v>667</v>
+        <v>557</v>
       </c>
       <c r="D101">
         <v>352</v>
@@ -3729,10 +3765,10 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>902</v>
+        <v>839</v>
       </c>
       <c r="C102">
-        <v>634</v>
+        <v>741</v>
       </c>
       <c r="D102">
         <v>352</v>
@@ -3746,10 +3782,10 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>891</v>
+        <v>713</v>
       </c>
       <c r="C103">
-        <v>644</v>
+        <v>795</v>
       </c>
       <c r="D103">
         <v>352</v>
@@ -3763,10 +3799,10 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>914</v>
+        <v>817</v>
       </c>
       <c r="C104">
-        <v>659</v>
+        <v>523</v>
       </c>
       <c r="D104">
         <v>352</v>
@@ -3780,10 +3816,10 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="C105">
-        <v>632</v>
+        <v>366</v>
       </c>
       <c r="D105">
         <v>352</v>
@@ -3797,10 +3833,10 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="C106">
-        <v>666</v>
+        <v>511</v>
       </c>
       <c r="D106">
         <v>352</v>
@@ -3814,10 +3850,10 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>889</v>
+        <v>930</v>
       </c>
       <c r="C107">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D107">
         <v>352</v>
@@ -3831,10 +3867,10 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>913</v>
+        <v>803</v>
       </c>
       <c r="C108">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c r="D108">
         <v>352</v>
@@ -3848,10 +3884,10 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="C109">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D109">
         <v>352</v>
@@ -3865,10 +3901,10 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="C110">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D110">
         <v>352</v>
@@ -3882,10 +3918,10 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C111">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="D111">
         <v>352</v>
@@ -3899,10 +3935,10 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C112">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="D112">
         <v>352</v>
@@ -3916,10 +3952,10 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>879</v>
+        <v>695</v>
       </c>
       <c r="C113">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="D113">
         <v>352</v>
@@ -3933,10 +3969,10 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="C114">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D114">
         <v>352</v>
@@ -3950,10 +3986,10 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>922</v>
+        <v>871</v>
       </c>
       <c r="C115">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="D115">
         <v>352</v>
@@ -3967,10 +4003,10 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>932</v>
+        <v>872</v>
       </c>
       <c r="C116">
-        <v>742</v>
+        <v>792</v>
       </c>
       <c r="D116">
         <v>352</v>
@@ -3984,10 +4020,10 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>918</v>
+        <v>1044</v>
       </c>
       <c r="C117">
-        <v>767</v>
+        <v>404</v>
       </c>
       <c r="D117">
         <v>352</v>
@@ -4001,10 +4037,10 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>929</v>
+        <v>866</v>
       </c>
       <c r="C118">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="D118">
         <v>352</v>
@@ -4018,10 +4054,10 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>903</v>
+        <v>994</v>
       </c>
       <c r="C119">
-        <v>740</v>
+        <v>448</v>
       </c>
       <c r="D119">
         <v>352</v>
@@ -4035,10 +4071,10 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="C120">
-        <v>760</v>
+        <v>578</v>
       </c>
       <c r="D120">
         <v>352</v>
@@ -4052,10 +4088,10 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="C121">
-        <v>773</v>
+        <v>601</v>
       </c>
       <c r="D121">
         <v>352</v>
@@ -4069,10 +4105,10 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>920</v>
+        <v>835</v>
       </c>
       <c r="C122">
-        <v>721</v>
+        <v>610</v>
       </c>
       <c r="D122">
         <v>352</v>
@@ -4086,10 +4122,10 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>898</v>
+        <v>1046</v>
       </c>
       <c r="C123">
-        <v>575</v>
+        <v>374</v>
       </c>
       <c r="D123">
         <v>352</v>
@@ -4103,10 +4139,10 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="C124">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="D124">
         <v>352</v>
@@ -4120,10 +4156,10 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>885</v>
+        <v>658</v>
       </c>
       <c r="C125">
-        <v>707</v>
+        <v>521</v>
       </c>
       <c r="D125">
         <v>352</v>
@@ -4137,10 +4173,10 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>899</v>
+        <v>841</v>
       </c>
       <c r="C126">
-        <v>692</v>
+        <v>812</v>
       </c>
       <c r="D126">
         <v>352</v>
@@ -4154,10 +4190,10 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="C127">
-        <v>723</v>
+        <v>604</v>
       </c>
       <c r="D127">
         <v>352</v>
@@ -4171,10 +4207,10 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="C128">
-        <v>700</v>
+        <v>792</v>
       </c>
       <c r="D128">
         <v>352</v>
@@ -4188,10 +4224,10 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="C129">
-        <v>712</v>
+        <v>548</v>
       </c>
       <c r="D129">
         <v>352</v>
@@ -4205,10 +4241,10 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>901</v>
+        <v>937</v>
       </c>
       <c r="C130">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="D130">
         <v>352</v>
@@ -4222,10 +4258,10 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>879</v>
+        <v>934</v>
       </c>
       <c r="C131">
-        <v>761</v>
+        <v>493</v>
       </c>
       <c r="D131">
         <v>352</v>
@@ -4239,10 +4275,10 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>866</v>
+        <v>841</v>
       </c>
       <c r="C132">
-        <v>734</v>
+        <v>595</v>
       </c>
       <c r="D132">
         <v>352</v>
@@ -4256,10 +4292,10 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>869</v>
+        <v>841</v>
       </c>
       <c r="C133">
-        <v>717</v>
+        <v>572</v>
       </c>
       <c r="D133">
         <v>352</v>
@@ -4273,10 +4309,10 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>894</v>
+        <v>836</v>
       </c>
       <c r="C134">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="D134">
         <v>352</v>
@@ -4290,10 +4326,10 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>909</v>
+        <v>848</v>
       </c>
       <c r="C135">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="D135">
         <v>352</v>
@@ -4307,10 +4343,10 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C136">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="D136">
         <v>352</v>
@@ -4320,14 +4356,14 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B137">
-        <v>924</v>
+        <v>870</v>
       </c>
       <c r="C137">
-        <v>578</v>
+        <v>700</v>
       </c>
       <c r="D137">
         <v>352</v>
@@ -4341,10 +4377,10 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>903</v>
+        <v>644</v>
       </c>
       <c r="C138">
-        <v>574</v>
+        <v>520</v>
       </c>
       <c r="D138">
         <v>352</v>
@@ -4358,10 +4394,10 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>900</v>
+        <v>396</v>
       </c>
       <c r="C139">
-        <v>605</v>
+        <v>507</v>
       </c>
       <c r="D139">
         <v>352</v>
@@ -4375,10 +4411,10 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>906</v>
+        <v>859</v>
       </c>
       <c r="C140">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="D140">
         <v>352</v>
@@ -4392,10 +4428,10 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>930</v>
+        <v>536</v>
       </c>
       <c r="C141">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="D141">
         <v>352</v>
@@ -4409,10 +4445,10 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>909</v>
+        <v>384</v>
       </c>
       <c r="C142">
-        <v>570</v>
+        <v>462</v>
       </c>
       <c r="D142">
         <v>352</v>
@@ -4426,10 +4462,10 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>891</v>
+        <v>705</v>
       </c>
       <c r="C143">
-        <v>601</v>
+        <v>755</v>
       </c>
       <c r="D143">
         <v>352</v>
@@ -4443,10 +4479,10 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>886</v>
+        <v>573</v>
       </c>
       <c r="C144">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="D144">
         <v>352</v>
@@ -4460,10 +4496,10 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="C145">
-        <v>563</v>
+        <v>780</v>
       </c>
       <c r="D145">
         <v>352</v>
@@ -4477,10 +4513,10 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>921</v>
+        <v>720</v>
       </c>
       <c r="C146">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D146">
         <v>352</v>
@@ -4494,10 +4530,10 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="C147">
-        <v>604</v>
+        <v>534</v>
       </c>
       <c r="D147">
         <v>352</v>
@@ -4511,10 +4547,10 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>886</v>
+        <v>722</v>
       </c>
       <c r="C148">
-        <v>569</v>
+        <v>698</v>
       </c>
       <c r="D148">
         <v>352</v>
@@ -4528,10 +4564,10 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>875</v>
+        <v>663</v>
       </c>
       <c r="C149">
-        <v>579</v>
+        <v>716</v>
       </c>
       <c r="D149">
         <v>352</v>
@@ -4545,10 +4581,10 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>905</v>
+        <v>930</v>
       </c>
       <c r="C150">
-        <v>558</v>
+        <v>714</v>
       </c>
       <c r="D150">
         <v>352</v>
@@ -4562,10 +4598,10 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="C151">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D151">
         <v>352</v>
@@ -4579,10 +4615,10 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>847</v>
+        <v>697</v>
       </c>
       <c r="C152">
-        <v>612</v>
+        <v>719</v>
       </c>
       <c r="D152">
         <v>352</v>
@@ -4596,10 +4632,10 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>859</v>
+        <v>951</v>
       </c>
       <c r="C153">
-        <v>609</v>
+        <v>494</v>
       </c>
       <c r="D153">
         <v>352</v>
@@ -4613,10 +4649,10 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>832</v>
+        <v>975</v>
       </c>
       <c r="C154">
-        <v>623</v>
+        <v>466</v>
       </c>
       <c r="D154">
         <v>352</v>
@@ -4630,10 +4666,10 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>842</v>
+        <v>875</v>
       </c>
       <c r="C155">
-        <v>632</v>
+        <v>579</v>
       </c>
       <c r="D155">
         <v>352</v>
@@ -4647,10 +4683,10 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>853</v>
+        <v>623</v>
       </c>
       <c r="C156">
-        <v>593</v>
+        <v>702</v>
       </c>
       <c r="D156">
         <v>352</v>
@@ -4664,10 +4700,10 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>854</v>
+        <v>659</v>
       </c>
       <c r="C157">
-        <v>598</v>
+        <v>773</v>
       </c>
       <c r="D157">
         <v>352</v>
@@ -4681,10 +4717,10 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>854</v>
+        <v>816</v>
       </c>
       <c r="C158">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="D158">
         <v>352</v>
@@ -4698,10 +4734,10 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>847</v>
+        <v>718</v>
       </c>
       <c r="C159">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D159">
         <v>352</v>
@@ -4715,10 +4751,10 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="C160">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D160">
         <v>352</v>
@@ -4732,10 +4768,10 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="C161">
-        <v>626</v>
+        <v>769</v>
       </c>
       <c r="D161">
         <v>352</v>
@@ -4749,10 +4785,10 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>854</v>
+        <v>884</v>
       </c>
       <c r="C162">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="D162">
         <v>352</v>
@@ -4766,10 +4802,10 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>815</v>
+        <v>734</v>
       </c>
       <c r="C163">
-        <v>620</v>
+        <v>749</v>
       </c>
       <c r="D163">
         <v>352</v>
@@ -4783,10 +4819,10 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>831</v>
+        <v>898</v>
       </c>
       <c r="C164">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="D164">
         <v>352</v>
@@ -4800,10 +4836,10 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>870</v>
+        <v>740</v>
       </c>
       <c r="C165">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="D165">
         <v>352</v>
@@ -4817,10 +4853,10 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>870</v>
+        <v>739</v>
       </c>
       <c r="C166">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="D166">
         <v>352</v>
@@ -4834,10 +4870,10 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>868</v>
+        <v>824</v>
       </c>
       <c r="C167">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="D167">
         <v>352</v>
@@ -4851,10 +4887,10 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>864</v>
+        <v>743</v>
       </c>
       <c r="C168">
-        <v>644</v>
+        <v>707</v>
       </c>
       <c r="D168">
         <v>352</v>
@@ -4868,10 +4904,10 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C169">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D169">
         <v>352</v>
@@ -4885,10 +4921,10 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C170">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="D170">
         <v>352</v>
@@ -4902,10 +4938,10 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>871</v>
+        <v>819</v>
       </c>
       <c r="C171">
-        <v>689</v>
+        <v>571</v>
       </c>
       <c r="D171">
         <v>352</v>
@@ -4919,10 +4955,10 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>810</v>
+        <v>914</v>
       </c>
       <c r="C172">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="D172">
         <v>352</v>
@@ -4936,10 +4972,10 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C173">
-        <v>675</v>
+        <v>814</v>
       </c>
       <c r="D173">
         <v>352</v>
@@ -4953,10 +4989,10 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>833</v>
+        <v>718</v>
       </c>
       <c r="C174">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="D174">
         <v>352</v>
@@ -4970,10 +5006,10 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="C175">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="D175">
         <v>352</v>
@@ -4987,10 +5023,10 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>836</v>
+        <v>721</v>
       </c>
       <c r="C176">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="D176">
         <v>352</v>
@@ -5004,10 +5040,10 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>859</v>
+        <v>1026</v>
       </c>
       <c r="C177">
-        <v>664</v>
+        <v>429</v>
       </c>
       <c r="D177">
         <v>352</v>
@@ -5021,10 +5057,10 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <v>848</v>
+        <v>544</v>
       </c>
       <c r="C178">
-        <v>687</v>
+        <v>636</v>
       </c>
       <c r="D178">
         <v>352</v>
@@ -5038,10 +5074,10 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="C179">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="D179">
         <v>352</v>
@@ -5055,10 +5091,10 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="C180">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="D180">
         <v>352</v>
@@ -5072,10 +5108,10 @@
         <v>184</v>
       </c>
       <c r="B181">
-        <v>848</v>
+        <v>922</v>
       </c>
       <c r="C181">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D181">
         <v>352</v>
@@ -5089,10 +5125,10 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="C182">
-        <v>684</v>
+        <v>795</v>
       </c>
       <c r="D182">
         <v>352</v>
@@ -5106,10 +5142,10 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>854</v>
+        <v>920</v>
       </c>
       <c r="C183">
-        <v>679</v>
+        <v>721</v>
       </c>
       <c r="D183">
         <v>352</v>
@@ -5123,10 +5159,10 @@
         <v>187</v>
       </c>
       <c r="B184">
-        <v>842</v>
+        <v>943</v>
       </c>
       <c r="C184">
-        <v>678</v>
+        <v>643</v>
       </c>
       <c r="D184">
         <v>352</v>
@@ -5140,10 +5176,10 @@
         <v>188</v>
       </c>
       <c r="B185">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C185">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="D185">
         <v>352</v>
@@ -5157,10 +5193,10 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>811</v>
+        <v>736</v>
       </c>
       <c r="C186">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="D186">
         <v>352</v>
@@ -5174,10 +5210,10 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>573</v>
+        <v>955</v>
       </c>
       <c r="C187">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="D187">
         <v>352</v>
@@ -5191,10 +5227,10 @@
         <v>191</v>
       </c>
       <c r="B188">
-        <v>639</v>
+        <v>936</v>
       </c>
       <c r="C188">
-        <v>656</v>
+        <v>728</v>
       </c>
       <c r="D188">
         <v>352</v>
@@ -5208,10 +5244,10 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="C189">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="D189">
         <v>352</v>
@@ -5225,10 +5261,10 @@
         <v>193</v>
       </c>
       <c r="B190">
-        <v>495</v>
+        <v>867</v>
       </c>
       <c r="C190">
-        <v>677</v>
+        <v>729</v>
       </c>
       <c r="D190">
         <v>352</v>
@@ -5242,10 +5278,10 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>544</v>
+        <v>943</v>
       </c>
       <c r="C191">
-        <v>636</v>
+        <v>501</v>
       </c>
       <c r="D191">
         <v>352</v>
@@ -5259,10 +5295,10 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>438</v>
+        <v>842</v>
       </c>
       <c r="C192">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="D192">
         <v>352</v>
@@ -5276,10 +5312,10 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>623</v>
+        <v>754</v>
       </c>
       <c r="C193">
-        <v>702</v>
+        <v>605</v>
       </c>
       <c r="D193">
         <v>352</v>
@@ -5293,10 +5329,10 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="C194">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D194">
         <v>352</v>
@@ -5310,10 +5346,10 @@
         <v>198</v>
       </c>
       <c r="B195">
-        <v>852</v>
+        <v>929</v>
       </c>
       <c r="C195">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="D195">
         <v>352</v>
@@ -5327,10 +5363,10 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="C196">
-        <v>727</v>
+        <v>596</v>
       </c>
       <c r="D196">
         <v>352</v>
@@ -5344,10 +5380,10 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>839</v>
+        <v>673</v>
       </c>
       <c r="C197">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="D197">
         <v>352</v>
@@ -5361,10 +5397,10 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>821</v>
+        <v>1023</v>
       </c>
       <c r="C198">
-        <v>741</v>
+        <v>404</v>
       </c>
       <c r="D198">
         <v>352</v>
@@ -5378,10 +5414,10 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>848</v>
+        <v>951</v>
       </c>
       <c r="C199">
-        <v>704</v>
+        <v>405</v>
       </c>
       <c r="D199">
         <v>352</v>
@@ -5395,10 +5431,10 @@
         <v>203</v>
       </c>
       <c r="B200">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="C200">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="D200">
         <v>352</v>
@@ -5412,10 +5448,10 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="C201">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="D201">
         <v>352</v>
@@ -5429,10 +5465,10 @@
         <v>205</v>
       </c>
       <c r="B202">
-        <v>827</v>
+        <v>765</v>
       </c>
       <c r="C202">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="D202">
         <v>352</v>
@@ -5446,10 +5482,10 @@
         <v>206</v>
       </c>
       <c r="B203">
-        <v>851</v>
+        <v>738</v>
       </c>
       <c r="C203">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="D203">
         <v>352</v>
@@ -5463,10 +5499,10 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>828</v>
+        <v>789</v>
       </c>
       <c r="C204">
-        <v>759</v>
+        <v>813</v>
       </c>
       <c r="D204">
         <v>352</v>
@@ -5480,10 +5516,10 @@
         <v>208</v>
       </c>
       <c r="B205">
-        <v>803</v>
+        <v>909</v>
       </c>
       <c r="C205">
-        <v>731</v>
+        <v>518</v>
       </c>
       <c r="D205">
         <v>352</v>
@@ -5492,15 +5528,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="1:8">
+      <c r="A206" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B206">
-        <v>824</v>
+        <v>924</v>
       </c>
       <c r="C206">
-        <v>724</v>
+        <v>578</v>
       </c>
       <c r="D206">
         <v>352</v>
@@ -5508,16 +5544,17 @@
       <c r="E206">
         <v>288</v>
       </c>
+      <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B207">
-        <v>800</v>
+        <v>841</v>
       </c>
       <c r="C207">
-        <v>708</v>
+        <v>776</v>
       </c>
       <c r="D207">
         <v>352</v>
@@ -5531,10 +5568,10 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>853</v>
+        <v>775</v>
       </c>
       <c r="C208">
-        <v>799</v>
+        <v>589</v>
       </c>
       <c r="D208">
         <v>352</v>
@@ -5548,10 +5585,10 @@
         <v>212</v>
       </c>
       <c r="B209">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="C209">
-        <v>775</v>
+        <v>697</v>
       </c>
       <c r="D209">
         <v>352</v>
@@ -5565,10 +5602,10 @@
         <v>213</v>
       </c>
       <c r="B210">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="C210">
-        <v>801</v>
+        <v>760</v>
       </c>
       <c r="D210">
         <v>352</v>
@@ -5582,10 +5619,10 @@
         <v>214</v>
       </c>
       <c r="B211">
-        <v>853</v>
+        <v>495</v>
       </c>
       <c r="C211">
-        <v>809</v>
+        <v>677</v>
       </c>
       <c r="D211">
         <v>352</v>
@@ -5599,10 +5636,10 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="C212">
-        <v>788</v>
+        <v>589</v>
       </c>
       <c r="D212">
         <v>352</v>
@@ -5616,10 +5653,10 @@
         <v>216</v>
       </c>
       <c r="B213">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="C213">
-        <v>794</v>
+        <v>620</v>
       </c>
       <c r="D213">
         <v>352</v>
@@ -5633,10 +5670,10 @@
         <v>217</v>
       </c>
       <c r="B214">
-        <v>841</v>
+        <v>903</v>
       </c>
       <c r="C214">
-        <v>812</v>
+        <v>740</v>
       </c>
       <c r="D214">
         <v>352</v>
@@ -5650,10 +5687,10 @@
         <v>218</v>
       </c>
       <c r="B215">
-        <v>806</v>
+        <v>857</v>
       </c>
       <c r="C215">
-        <v>829</v>
+        <v>879</v>
       </c>
       <c r="D215">
         <v>352</v>
@@ -5667,10 +5704,10 @@
         <v>219</v>
       </c>
       <c r="B216">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="C216">
-        <v>814</v>
+        <v>870</v>
       </c>
       <c r="D216">
         <v>352</v>
@@ -5684,10 +5721,10 @@
         <v>220</v>
       </c>
       <c r="B217">
-        <v>838</v>
+        <v>918</v>
       </c>
       <c r="C217">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="D217">
         <v>352</v>
@@ -5701,10 +5738,10 @@
         <v>221</v>
       </c>
       <c r="B218">
-        <v>872</v>
+        <v>569</v>
       </c>
       <c r="C218">
-        <v>792</v>
+        <v>709</v>
       </c>
       <c r="D218">
         <v>352</v>
@@ -5718,10 +5755,10 @@
         <v>222</v>
       </c>
       <c r="B219">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C219">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="D219">
         <v>352</v>
@@ -5752,10 +5789,10 @@
         <v>224</v>
       </c>
       <c r="B221">
-        <v>875</v>
+        <v>805</v>
       </c>
       <c r="C221">
-        <v>780</v>
+        <v>631</v>
       </c>
       <c r="D221">
         <v>352</v>
@@ -5769,10 +5806,10 @@
         <v>225</v>
       </c>
       <c r="B222">
-        <v>836</v>
+        <v>870</v>
       </c>
       <c r="C222">
-        <v>813</v>
+        <v>613</v>
       </c>
       <c r="D222">
         <v>352</v>
@@ -5786,10 +5823,10 @@
         <v>226</v>
       </c>
       <c r="B223">
-        <v>841</v>
+        <v>953</v>
       </c>
       <c r="C223">
-        <v>776</v>
+        <v>661</v>
       </c>
       <c r="D223">
         <v>352</v>
@@ -5803,10 +5840,10 @@
         <v>227</v>
       </c>
       <c r="B224">
-        <v>859</v>
+        <v>909</v>
       </c>
       <c r="C224">
-        <v>795</v>
+        <v>704</v>
       </c>
       <c r="D224">
         <v>352</v>
@@ -5820,10 +5857,10 @@
         <v>228</v>
       </c>
       <c r="B225">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C225">
-        <v>804</v>
+        <v>775</v>
       </c>
       <c r="D225">
         <v>352</v>
@@ -5837,10 +5874,10 @@
         <v>229</v>
       </c>
       <c r="B226">
-        <v>900</v>
+        <v>821</v>
       </c>
       <c r="C226">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="D226">
         <v>352</v>
@@ -5854,10 +5891,10 @@
         <v>230</v>
       </c>
       <c r="B227">
-        <v>890</v>
+        <v>941</v>
       </c>
       <c r="C227">
-        <v>792</v>
+        <v>690</v>
       </c>
       <c r="D227">
         <v>352</v>
@@ -5871,10 +5908,10 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>834</v>
+        <v>864</v>
       </c>
       <c r="C228">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="D228">
         <v>352</v>
@@ -5888,10 +5925,10 @@
         <v>232</v>
       </c>
       <c r="B229">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="C229">
-        <v>795</v>
+        <v>664</v>
       </c>
       <c r="D229">
         <v>352</v>
@@ -5905,10 +5942,10 @@
         <v>233</v>
       </c>
       <c r="B230">
-        <v>797</v>
+        <v>946</v>
       </c>
       <c r="C230">
-        <v>769</v>
+        <v>476</v>
       </c>
       <c r="D230">
         <v>352</v>
@@ -5922,10 +5959,10 @@
         <v>234</v>
       </c>
       <c r="B231">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C231">
-        <v>760</v>
+        <v>652</v>
       </c>
       <c r="D231">
         <v>352</v>
@@ -5939,10 +5976,10 @@
         <v>235</v>
       </c>
       <c r="B232">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="C232">
-        <v>792</v>
+        <v>552</v>
       </c>
       <c r="D232">
         <v>352</v>
@@ -5956,10 +5993,10 @@
         <v>236</v>
       </c>
       <c r="B233">
-        <v>796</v>
+        <v>758</v>
       </c>
       <c r="C233">
-        <v>819</v>
+        <v>545</v>
       </c>
       <c r="D233">
         <v>352</v>
@@ -5973,10 +6010,10 @@
         <v>237</v>
       </c>
       <c r="B234">
-        <v>770</v>
+        <v>1030</v>
       </c>
       <c r="C234">
-        <v>816</v>
+        <v>394</v>
       </c>
       <c r="D234">
         <v>352</v>
@@ -5990,10 +6027,10 @@
         <v>238</v>
       </c>
       <c r="B235">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="C235">
-        <v>813</v>
+        <v>530</v>
       </c>
       <c r="D235">
         <v>352</v>
@@ -6007,10 +6044,10 @@
         <v>239</v>
       </c>
       <c r="B236">
-        <v>798</v>
+        <v>966</v>
       </c>
       <c r="C236">
-        <v>791</v>
+        <v>459</v>
       </c>
       <c r="D236">
         <v>352</v>
@@ -6024,10 +6061,10 @@
         <v>240</v>
       </c>
       <c r="B237">
-        <v>808</v>
+        <v>955</v>
       </c>
       <c r="C237">
-        <v>808</v>
+        <v>436</v>
       </c>
       <c r="D237">
         <v>352</v>
@@ -6041,10 +6078,10 @@
         <v>241</v>
       </c>
       <c r="B238">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="C238">
-        <v>779</v>
+        <v>656</v>
       </c>
       <c r="D238">
         <v>352</v>
@@ -6058,10 +6095,10 @@
         <v>242</v>
       </c>
       <c r="B239">
-        <v>829</v>
+        <v>914</v>
       </c>
       <c r="C239">
-        <v>780</v>
+        <v>621</v>
       </c>
       <c r="D239">
         <v>352</v>
@@ -6075,10 +6112,10 @@
         <v>243</v>
       </c>
       <c r="B240">
-        <v>772</v>
+        <v>895</v>
       </c>
       <c r="C240">
-        <v>772</v>
+        <v>626</v>
       </c>
       <c r="D240">
         <v>352</v>
@@ -6092,10 +6129,10 @@
         <v>244</v>
       </c>
       <c r="B241">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="C241">
-        <v>780</v>
+        <v>400</v>
       </c>
       <c r="D241">
         <v>352</v>
@@ -6109,10 +6146,10 @@
         <v>245</v>
       </c>
       <c r="B242">
-        <v>764</v>
+        <v>848</v>
       </c>
       <c r="C242">
-        <v>809</v>
+        <v>653</v>
       </c>
       <c r="D242">
         <v>352</v>
@@ -6126,10 +6163,10 @@
         <v>246</v>
       </c>
       <c r="B243">
-        <v>809</v>
+        <v>746</v>
       </c>
       <c r="C243">
-        <v>850</v>
+        <v>674</v>
       </c>
       <c r="D243">
         <v>352</v>
@@ -6143,10 +6180,10 @@
         <v>247</v>
       </c>
       <c r="B244">
-        <v>799</v>
+        <v>513</v>
       </c>
       <c r="C244">
-        <v>870</v>
+        <v>400</v>
       </c>
       <c r="D244">
         <v>352</v>
@@ -6160,10 +6197,10 @@
         <v>248</v>
       </c>
       <c r="B245">
-        <v>798</v>
+        <v>954</v>
       </c>
       <c r="C245">
-        <v>857</v>
+        <v>701</v>
       </c>
       <c r="D245">
         <v>352</v>
@@ -6177,10 +6214,10 @@
         <v>249</v>
       </c>
       <c r="B246">
-        <v>857</v>
+        <v>829</v>
       </c>
       <c r="C246">
-        <v>879</v>
+        <v>565</v>
       </c>
       <c r="D246">
         <v>352</v>
@@ -6194,10 +6231,10 @@
         <v>250</v>
       </c>
       <c r="B247">
-        <v>758</v>
+        <v>886</v>
       </c>
       <c r="C247">
-        <v>739</v>
+        <v>586</v>
       </c>
       <c r="D247">
         <v>352</v>
@@ -6211,10 +6248,10 @@
         <v>251</v>
       </c>
       <c r="B248">
-        <v>734</v>
+        <v>935</v>
       </c>
       <c r="C248">
-        <v>749</v>
+        <v>638</v>
       </c>
       <c r="D248">
         <v>352</v>
@@ -6228,10 +6265,10 @@
         <v>252</v>
       </c>
       <c r="B249">
-        <v>767</v>
+        <v>902</v>
       </c>
       <c r="C249">
-        <v>718</v>
+        <v>530</v>
       </c>
       <c r="D249">
         <v>352</v>
@@ -6245,10 +6282,10 @@
         <v>253</v>
       </c>
       <c r="B250">
-        <v>749</v>
+        <v>889</v>
       </c>
       <c r="C250">
-        <v>749</v>
+        <v>535</v>
       </c>
       <c r="D250">
         <v>352</v>
@@ -6262,10 +6299,10 @@
         <v>254</v>
       </c>
       <c r="B251">
-        <v>787</v>
+        <v>844</v>
       </c>
       <c r="C251">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="D251">
         <v>352</v>
@@ -6279,10 +6316,10 @@
         <v>255</v>
       </c>
       <c r="B252">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="C252">
-        <v>759</v>
+        <v>620</v>
       </c>
       <c r="D252">
         <v>352</v>
@@ -6296,10 +6333,10 @@
         <v>256</v>
       </c>
       <c r="B253">
-        <v>738</v>
+        <v>959</v>
       </c>
       <c r="C253">
-        <v>735</v>
+        <v>468</v>
       </c>
       <c r="D253">
         <v>352</v>
@@ -6313,10 +6350,10 @@
         <v>257</v>
       </c>
       <c r="B254">
-        <v>790</v>
+        <v>987</v>
       </c>
       <c r="C254">
-        <v>747</v>
+        <v>477</v>
       </c>
       <c r="D254">
         <v>352</v>
@@ -6330,10 +6367,10 @@
         <v>258</v>
       </c>
       <c r="B255">
-        <v>765</v>
+        <v>941</v>
       </c>
       <c r="C255">
-        <v>753</v>
+        <v>459</v>
       </c>
       <c r="D255">
         <v>352</v>
@@ -6347,10 +6384,10 @@
         <v>259</v>
       </c>
       <c r="B256">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="C256">
-        <v>755</v>
+        <v>604</v>
       </c>
       <c r="D256">
         <v>352</v>
@@ -6364,10 +6401,10 @@
         <v>260</v>
       </c>
       <c r="B257">
-        <v>698</v>
+        <v>900</v>
       </c>
       <c r="C257">
-        <v>776</v>
+        <v>666</v>
       </c>
       <c r="D257">
         <v>352</v>
@@ -6381,10 +6418,10 @@
         <v>261</v>
       </c>
       <c r="B258">
-        <v>651</v>
+        <v>787</v>
       </c>
       <c r="C258">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="D258">
         <v>352</v>
@@ -6398,10 +6435,10 @@
         <v>262</v>
       </c>
       <c r="B259">
-        <v>723</v>
+        <v>580</v>
       </c>
       <c r="C259">
-        <v>723</v>
+        <v>482</v>
       </c>
       <c r="D259">
         <v>352</v>
@@ -6415,10 +6452,10 @@
         <v>263</v>
       </c>
       <c r="B260">
-        <v>663</v>
+        <v>944</v>
       </c>
       <c r="C260">
-        <v>716</v>
+        <v>563</v>
       </c>
       <c r="D260">
         <v>352</v>
@@ -6432,10 +6469,10 @@
         <v>264</v>
       </c>
       <c r="B261">
-        <v>673</v>
+        <v>909</v>
       </c>
       <c r="C261">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="D261">
         <v>352</v>
@@ -6449,10 +6486,10 @@
         <v>265</v>
       </c>
       <c r="B262">
-        <v>659</v>
+        <v>800</v>
       </c>
       <c r="C262">
-        <v>773</v>
+        <v>613</v>
       </c>
       <c r="D262">
         <v>352</v>
@@ -6466,10 +6503,10 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>687</v>
+        <v>944</v>
       </c>
       <c r="C263">
-        <v>759</v>
+        <v>714</v>
       </c>
       <c r="D263">
         <v>352</v>
@@ -6483,10 +6520,10 @@
         <v>267</v>
       </c>
       <c r="B264">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C264">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D264">
         <v>352</v>
@@ -6500,10 +6537,10 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="C265">
-        <v>790</v>
+        <v>535</v>
       </c>
       <c r="D265">
         <v>352</v>
@@ -6517,10 +6554,10 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>879</v>
+        <v>832</v>
       </c>
       <c r="C266">
-        <v>816</v>
+        <v>484</v>
       </c>
       <c r="D266">
         <v>352</v>
@@ -6534,10 +6571,10 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>666</v>
+        <v>550</v>
       </c>
       <c r="C267">
-        <v>747</v>
+        <v>452</v>
       </c>
       <c r="D267">
         <v>352</v>
@@ -6551,10 +6588,10 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>633</v>
+        <v>935</v>
       </c>
       <c r="C268">
-        <v>764</v>
+        <v>660</v>
       </c>
       <c r="D268">
         <v>352</v>
@@ -6568,10 +6605,10 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>653</v>
+        <v>909</v>
       </c>
       <c r="C269">
-        <v>729</v>
+        <v>667</v>
       </c>
       <c r="D269">
         <v>352</v>
@@ -6585,10 +6622,10 @@
         <v>273</v>
       </c>
       <c r="B270">
-        <v>664</v>
+        <v>763</v>
       </c>
       <c r="C270">
-        <v>715</v>
+        <v>566</v>
       </c>
       <c r="D270">
         <v>352</v>
@@ -6602,10 +6639,10 @@
         <v>274</v>
       </c>
       <c r="B271">
-        <v>717</v>
+        <v>820</v>
       </c>
       <c r="C271">
-        <v>664</v>
+        <v>792</v>
       </c>
       <c r="D271">
         <v>352</v>
@@ -6619,10 +6656,10 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>730</v>
+        <v>859</v>
       </c>
       <c r="C272">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="D272">
         <v>352</v>
@@ -6636,10 +6673,10 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>867</v>
+        <v>714</v>
       </c>
       <c r="C273">
-        <v>729</v>
+        <v>556</v>
       </c>
       <c r="D273">
         <v>352</v>
@@ -6653,10 +6690,10 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="C274">
-        <v>707</v>
+        <v>622</v>
       </c>
       <c r="D274">
         <v>352</v>
@@ -6670,10 +6707,10 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="C275">
-        <v>663</v>
+        <v>581</v>
       </c>
       <c r="D275">
         <v>352</v>
@@ -6687,10 +6724,10 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>721</v>
+        <v>879</v>
       </c>
       <c r="C276">
-        <v>659</v>
+        <v>816</v>
       </c>
       <c r="D276">
         <v>352</v>
@@ -6704,10 +6741,10 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>747</v>
+        <v>857</v>
       </c>
       <c r="C277">
-        <v>652</v>
+        <v>463</v>
       </c>
       <c r="D277">
         <v>352</v>
@@ -6721,10 +6758,10 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>746</v>
+        <v>854</v>
       </c>
       <c r="C278">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D278">
         <v>352</v>
@@ -6738,10 +6775,10 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>736</v>
+        <v>860</v>
       </c>
       <c r="C279">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D279">
         <v>352</v>
@@ -6755,10 +6792,10 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>722</v>
+        <v>781</v>
       </c>
       <c r="C280">
-        <v>698</v>
+        <v>610</v>
       </c>
       <c r="D280">
         <v>352</v>
@@ -6772,10 +6809,10 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>750</v>
+        <v>844</v>
       </c>
       <c r="C281">
-        <v>670</v>
+        <v>727</v>
       </c>
       <c r="D281">
         <v>352</v>
@@ -6789,10 +6826,10 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="C282">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="D282">
         <v>352</v>
@@ -6806,10 +6843,10 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>727</v>
+        <v>833</v>
       </c>
       <c r="C283">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="D283">
         <v>352</v>
@@ -6823,10 +6860,10 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>767</v>
+        <v>859</v>
       </c>
       <c r="C284">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="D284">
         <v>352</v>
@@ -6840,10 +6877,10 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="C285">
-        <v>664</v>
+        <v>544</v>
       </c>
       <c r="D285">
         <v>352</v>
@@ -6857,10 +6894,10 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>702</v>
+        <v>496</v>
       </c>
       <c r="C286">
-        <v>680</v>
+        <v>505</v>
       </c>
       <c r="D286">
         <v>352</v>
@@ -6874,10 +6911,10 @@
         <v>290</v>
       </c>
       <c r="B287">
-        <v>767</v>
+        <v>854</v>
       </c>
       <c r="C287">
-        <v>656</v>
+        <v>608</v>
       </c>
       <c r="D287">
         <v>352</v>
@@ -6891,10 +6928,10 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>731</v>
+        <v>877</v>
       </c>
       <c r="C288">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="D288">
         <v>352</v>
@@ -6908,10 +6945,10 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>713</v>
+        <v>870</v>
       </c>
       <c r="C289">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D289">
         <v>352</v>
@@ -6925,10 +6962,10 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>671</v>
+        <v>863</v>
       </c>
       <c r="C290">
-        <v>671</v>
+        <v>566</v>
       </c>
       <c r="D290">
         <v>352</v>
@@ -6942,10 +6979,10 @@
         <v>294</v>
       </c>
       <c r="B291">
-        <v>697</v>
+        <v>922</v>
       </c>
       <c r="C291">
-        <v>719</v>
+        <v>433</v>
       </c>
       <c r="D291">
         <v>352</v>
@@ -6959,10 +6996,10 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>785</v>
+        <v>907</v>
       </c>
       <c r="C292">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D292">
         <v>352</v>
@@ -6976,10 +7013,10 @@
         <v>296</v>
       </c>
       <c r="B293">
-        <v>792</v>
+        <v>847</v>
       </c>
       <c r="C293">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="D293">
         <v>352</v>
@@ -6993,10 +7030,10 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>770</v>
+        <v>922</v>
       </c>
       <c r="C294">
-        <v>620</v>
+        <v>672</v>
       </c>
       <c r="D294">
         <v>352</v>
@@ -7010,10 +7047,10 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>781</v>
+        <v>702</v>
       </c>
       <c r="C295">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="D295">
         <v>352</v>
@@ -7027,10 +7064,10 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>800</v>
+        <v>930</v>
       </c>
       <c r="C296">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="D296">
         <v>352</v>
@@ -7061,10 +7098,10 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>763</v>
+        <v>1025</v>
       </c>
       <c r="C298">
-        <v>637</v>
+        <v>448</v>
       </c>
       <c r="D298">
         <v>352</v>
@@ -7078,10 +7115,10 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>800</v>
+        <v>935</v>
       </c>
       <c r="C299">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="D299">
         <v>352</v>
@@ -7095,10 +7132,10 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>792</v>
+        <v>926</v>
       </c>
       <c r="C300">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D300">
         <v>352</v>
@@ -7112,10 +7149,10 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="C301">
-        <v>631</v>
+        <v>813</v>
       </c>
       <c r="D301">
         <v>352</v>
@@ -7129,10 +7166,10 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>691</v>
+        <v>847</v>
       </c>
       <c r="C302">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="D302">
         <v>352</v>
@@ -7146,10 +7183,10 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>703</v>
+        <v>1000</v>
       </c>
       <c r="C303">
-        <v>571</v>
+        <v>372</v>
       </c>
       <c r="D303">
         <v>352</v>
@@ -7163,10 +7200,10 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>683</v>
+        <v>481</v>
       </c>
       <c r="C304">
-        <v>555</v>
+        <v>433</v>
       </c>
       <c r="D304">
         <v>352</v>
@@ -7180,10 +7217,10 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="C305">
-        <v>605</v>
+        <v>704</v>
       </c>
       <c r="D305">
         <v>352</v>
@@ -7197,10 +7234,10 @@
         <v>309</v>
       </c>
       <c r="B306">
+        <v>820</v>
+      </c>
+      <c r="C306">
         <v>675</v>
-      </c>
-      <c r="C306">
-        <v>588</v>
       </c>
       <c r="D306">
         <v>352</v>
@@ -7214,10 +7251,10 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>678</v>
+        <v>869</v>
       </c>
       <c r="C307">
-        <v>631</v>
+        <v>717</v>
       </c>
       <c r="D307">
         <v>352</v>
@@ -7231,10 +7268,10 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>627</v>
+        <v>827</v>
       </c>
       <c r="C308">
-        <v>627</v>
+        <v>713</v>
       </c>
       <c r="D308">
         <v>352</v>
@@ -7248,10 +7285,10 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>613</v>
+        <v>756</v>
       </c>
       <c r="C309">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D309">
         <v>352</v>
@@ -7265,10 +7302,10 @@
         <v>313</v>
       </c>
       <c r="B310">
-        <v>720</v>
+        <v>901</v>
       </c>
       <c r="C310">
-        <v>591</v>
+        <v>711</v>
       </c>
       <c r="D310">
         <v>352</v>
@@ -7282,10 +7319,10 @@
         <v>314</v>
       </c>
       <c r="B311">
-        <v>658</v>
+        <v>948</v>
       </c>
       <c r="C311">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D311">
         <v>352</v>
@@ -7299,10 +7336,10 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>711</v>
+        <v>828</v>
       </c>
       <c r="C312">
-        <v>548</v>
+        <v>759</v>
       </c>
       <c r="D312">
         <v>352</v>
@@ -7316,10 +7353,10 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>736</v>
+        <v>800</v>
       </c>
       <c r="C313">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="D313">
         <v>352</v>
@@ -7333,10 +7370,10 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>751</v>
+        <v>808</v>
       </c>
       <c r="C314">
-        <v>620</v>
+        <v>808</v>
       </c>
       <c r="D314">
         <v>352</v>
@@ -7350,10 +7387,10 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>714</v>
+        <v>627</v>
       </c>
       <c r="C315">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="D315">
         <v>352</v>
@@ -7367,10 +7404,10 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="C316">
-        <v>538</v>
+        <v>776</v>
       </c>
       <c r="D316">
         <v>352</v>
@@ -7384,10 +7421,10 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>754</v>
+        <v>848</v>
       </c>
       <c r="C317">
-        <v>605</v>
+        <v>704</v>
       </c>
       <c r="D317">
         <v>352</v>
@@ -7401,10 +7438,10 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>644</v>
+        <v>834</v>
       </c>
       <c r="C318">
-        <v>520</v>
+        <v>794</v>
       </c>
       <c r="D318">
         <v>352</v>
@@ -7418,10 +7455,10 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>775</v>
+        <v>812</v>
       </c>
       <c r="C319">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="D319">
         <v>352</v>
@@ -7435,10 +7472,10 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>732</v>
+        <v>900</v>
       </c>
       <c r="C320">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D320">
         <v>352</v>
@@ -7452,10 +7489,10 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>739</v>
+        <v>806</v>
       </c>
       <c r="C321">
-        <v>636</v>
+        <v>829</v>
       </c>
       <c r="D321">
         <v>352</v>
@@ -7469,10 +7506,10 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>718</v>
+        <v>812</v>
       </c>
       <c r="C322">
-        <v>597</v>
+        <v>703</v>
       </c>
       <c r="D322">
         <v>352</v>
@@ -7486,10 +7523,10 @@
         <v>326</v>
       </c>
       <c r="B323">
-        <v>699</v>
+        <v>860</v>
       </c>
       <c r="C323">
-        <v>624</v>
+        <v>509</v>
       </c>
       <c r="D323">
         <v>352</v>
@@ -7503,10 +7540,10 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>756</v>
+        <v>685</v>
       </c>
       <c r="C324">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="D324">
         <v>352</v>
@@ -7520,10 +7557,10 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>758</v>
+        <v>910</v>
       </c>
       <c r="C325">
-        <v>545</v>
+        <v>773</v>
       </c>
       <c r="D325">
         <v>352</v>
@@ -7537,10 +7574,10 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>763</v>
+        <v>979</v>
       </c>
       <c r="C326">
-        <v>566</v>
+        <v>437</v>
       </c>
       <c r="D326">
         <v>352</v>
@@ -7554,10 +7591,10 @@
         <v>330</v>
       </c>
       <c r="B327">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="C327">
-        <v>593</v>
+        <v>714</v>
       </c>
       <c r="D327">
         <v>352</v>
@@ -7571,10 +7608,10 @@
         <v>331</v>
       </c>
       <c r="B328">
-        <v>746</v>
+        <v>841</v>
       </c>
       <c r="C328">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D328">
         <v>352</v>
@@ -7588,10 +7625,10 @@
         <v>332</v>
       </c>
       <c r="B329">
-        <v>550</v>
+        <v>723</v>
       </c>
       <c r="C329">
-        <v>452</v>
+        <v>723</v>
       </c>
       <c r="D329">
         <v>352</v>
@@ -7605,10 +7642,10 @@
         <v>333</v>
       </c>
       <c r="B330">
-        <v>581</v>
+        <v>838</v>
       </c>
       <c r="C330">
-        <v>435</v>
+        <v>785</v>
       </c>
       <c r="D330">
         <v>352</v>
@@ -7622,10 +7659,10 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>396</v>
+        <v>927</v>
       </c>
       <c r="C331">
-        <v>507</v>
+        <v>650</v>
       </c>
       <c r="D331">
         <v>352</v>
@@ -7639,10 +7676,10 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>481</v>
+        <v>847</v>
       </c>
       <c r="C332">
-        <v>433</v>
+        <v>612</v>
       </c>
       <c r="D332">
         <v>352</v>
@@ -7656,10 +7693,10 @@
         <v>336</v>
       </c>
       <c r="B333">
-        <v>465</v>
+        <v>854</v>
       </c>
       <c r="C333">
-        <v>465</v>
+        <v>804</v>
       </c>
       <c r="D333">
         <v>352</v>
@@ -7673,10 +7710,10 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>547</v>
+        <v>746</v>
       </c>
       <c r="C334">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="D334">
         <v>352</v>
@@ -7690,10 +7727,10 @@
         <v>338</v>
       </c>
       <c r="B335">
-        <v>513</v>
+        <v>772</v>
       </c>
       <c r="C335">
-        <v>400</v>
+        <v>694</v>
       </c>
       <c r="D335">
         <v>352</v>
@@ -7707,10 +7744,10 @@
         <v>339</v>
       </c>
       <c r="B336">
-        <v>560</v>
+        <v>967</v>
       </c>
       <c r="C336">
-        <v>378</v>
+        <v>675</v>
       </c>
       <c r="D336">
         <v>352</v>
@@ -7724,10 +7761,10 @@
         <v>340</v>
       </c>
       <c r="B337">
-        <v>580</v>
+        <v>868</v>
       </c>
       <c r="C337">
-        <v>482</v>
+        <v>626</v>
       </c>
       <c r="D337">
         <v>352</v>
@@ -7741,10 +7778,10 @@
         <v>341</v>
       </c>
       <c r="B338">
-        <v>384</v>
+        <v>853</v>
       </c>
       <c r="C338">
-        <v>462</v>
+        <v>809</v>
       </c>
       <c r="D338">
         <v>352</v>
@@ -7758,10 +7795,10 @@
         <v>342</v>
       </c>
       <c r="B339">
-        <v>628</v>
+        <v>852</v>
       </c>
       <c r="C339">
-        <v>469</v>
+        <v>736</v>
       </c>
       <c r="D339">
         <v>352</v>
@@ -7775,10 +7812,10 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>479</v>
+        <v>864</v>
       </c>
       <c r="C340">
-        <v>404</v>
+        <v>644</v>
       </c>
       <c r="D340">
         <v>352</v>
@@ -7792,10 +7829,10 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>536</v>
+        <v>731</v>
       </c>
       <c r="C341">
-        <v>426</v>
+        <v>685</v>
       </c>
       <c r="D341">
         <v>352</v>
@@ -7809,10 +7846,10 @@
         <v>345</v>
       </c>
       <c r="B342">
-        <v>496</v>
+        <v>903</v>
       </c>
       <c r="C342">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="D342">
         <v>352</v>
@@ -7821,11 +7858,39 @@
         <v>288</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
-      <c r="A344"/>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345"/>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B343">
+        <v>730</v>
+      </c>
+      <c r="C343">
+        <v>700</v>
+      </c>
+      <c r="D343">
+        <v>352</v>
+      </c>
+      <c r="E343">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B344">
+        <v>767</v>
+      </c>
+      <c r="C344">
+        <v>718</v>
+      </c>
+      <c r="D344">
+        <v>352</v>
+      </c>
+      <c r="E344">
+        <v>288</v>
+      </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346"/>
@@ -15369,7 +15434,16 @@
     <row r="2859" spans="1:1">
       <c r="A2859"/>
     </row>
+    <row r="2860" spans="1:1">
+      <c r="A2860"/>
+    </row>
+    <row r="2861" spans="1:1">
+      <c r="A2861"/>
+    </row>
   </sheetData>
+  <sortState ref="H1:I2860">
+    <sortCondition ref="H226"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
